--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7757" uniqueCount="93">
   <si>
     <t>CaseId</t>
   </si>
@@ -456,14 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.thetiger.ziwork:id/phone_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -516,12 +508,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -537,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3415">
+  <cellXfs count="7562">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -561,12 +553,27 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -582,6 +589,20 @@
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -591,1088 +612,5206 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -4269,7 +8408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4310,7 +8449,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4325,15 +8464,15 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="964" t="s">
-        <v>93</v>
+      <c r="G2" s="5961" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4346,15 +8485,15 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1014" t="s">
-        <v>93</v>
+      <c r="G3" s="6011" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
@@ -4367,15 +8506,15 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1064" t="s">
-        <v>93</v>
+      <c r="G4" s="6061" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="5" spans="1:7">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -4388,15 +8527,15 @@
       <c r="F5" s="2">
         <v>1111</v>
       </c>
-      <c r="G5" s="1114" t="s">
-        <v>93</v>
+      <c r="G5" s="6111" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="6" spans="1:7">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -4409,15 +8548,15 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1164" t="s">
-        <v>94</v>
+      <c r="G6" s="6161" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="7" spans="1:7">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -4430,15 +8569,15 @@
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1214" t="s">
-        <v>93</v>
+      <c r="G7" s="6211" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="8" spans="1:7">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
@@ -4451,15 +8590,15 @@
       <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1264" t="s">
-        <v>94</v>
+      <c r="G8" s="6261" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="9" spans="1:7">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -4472,15 +8611,15 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1314" t="s">
-        <v>94</v>
+      <c r="G9" s="6311" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="10" spans="1:7">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4493,15 +8632,15 @@
       <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1364" t="s">
-        <v>94</v>
+      <c r="G10" s="6361" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="11" spans="1:7">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
@@ -4514,15 +8653,15 @@
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1414" t="s">
-        <v>93</v>
+      <c r="G11" s="5461" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="12" spans="1:7">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -4535,8 +8674,8 @@
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1464" t="s">
-        <v>93</v>
+      <c r="G12" s="5511" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="13" spans="1:7">
@@ -4556,15 +8695,15 @@
         <v>41</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1514" t="s">
-        <v>94</v>
+      <c r="G13" s="5561" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="14" spans="1:7">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -4579,20 +8718,20 @@
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1564" t="s">
-        <v>93</v>
+      <c r="G14" s="5611" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="15" spans="1:7">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -4600,15 +8739,15 @@
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="1614" t="s">
-        <v>93</v>
+      <c r="G15" s="5661" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="16" spans="1:7">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -4621,15 +8760,15 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1664" t="s">
-        <v>94</v>
+      <c r="G16" s="5711" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="17" spans="1:7">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
@@ -4642,15 +8781,15 @@
       <c r="F17" s="2">
         <v>1111</v>
       </c>
-      <c r="G17" s="1714" t="s">
-        <v>94</v>
+      <c r="G17" s="5761" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="18" spans="1:7">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -4663,15 +8802,15 @@
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1764" t="s">
-        <v>94</v>
+      <c r="G18" s="5811" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="19" spans="1:7">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
@@ -4684,15 +8823,15 @@
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="1814" t="s">
-        <v>93</v>
+      <c r="G19" s="5861" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="20" spans="1:7">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -4705,15 +8844,15 @@
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="1864" t="s">
-        <v>94</v>
+      <c r="G20" s="5911" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="21" spans="1:7">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
@@ -4726,15 +8865,15 @@
       <c r="F21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="1914" t="s">
-        <v>93</v>
+      <c r="G21" s="6411" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="22" spans="1:7">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
@@ -4747,15 +8886,15 @@
       <c r="F22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="1964" t="s">
-        <v>93</v>
+      <c r="G22" s="6461" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="23" spans="1:7">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
@@ -4768,15 +8907,15 @@
       <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="2014" t="s">
-        <v>94</v>
+      <c r="G23" s="6511" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="24" spans="1:7">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
@@ -4789,15 +8928,15 @@
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="2064" t="s">
-        <v>94</v>
+      <c r="G24" s="6561" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="25" spans="1:7">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
@@ -4810,15 +8949,15 @@
       <c r="F25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="2114" t="s">
-        <v>94</v>
+      <c r="G25" s="6611" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="26" spans="1:7">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
@@ -4831,15 +8970,15 @@
       <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2164" t="s">
-        <v>94</v>
+      <c r="G26" s="6661" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="27" spans="1:7">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
@@ -4852,15 +8991,15 @@
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="2214" t="s">
-        <v>94</v>
+      <c r="G27" s="6711" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="28" spans="1:7">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="59" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -4875,15 +9014,15 @@
       <c r="F28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="2264" t="s">
-        <v>94</v>
+      <c r="G28" s="6761" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="20.100000000000001" r="29" s="1" spans="1:7">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="6" t="s">
         <v>53</v>
       </c>
@@ -4896,15 +9035,15 @@
       <c r="F29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="2314" t="s">
-        <v>94</v>
+      <c r="G29" s="6811" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="30" spans="1:7">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4917,15 +9056,15 @@
       <c r="F30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="2364" t="s">
-        <v>93</v>
+      <c r="G30" s="6861" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="31" spans="1:7">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="3" t="s">
         <v>57</v>
       </c>
@@ -4938,15 +9077,15 @@
       <c r="F31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="2414" t="s">
-        <v>94</v>
+      <c r="G31" s="6911" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="32" spans="1:7">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
@@ -4959,15 +9098,15 @@
       <c r="F32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="2464" t="s">
-        <v>94</v>
+      <c r="G32" s="6961" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="33" spans="1:7">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
@@ -4980,15 +9119,15 @@
       <c r="F33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="2514" t="s">
-        <v>94</v>
+      <c r="G33" s="7011" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="34" spans="1:7">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
@@ -5001,15 +9140,15 @@
       <c r="F34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="2564" t="s">
-        <v>94</v>
+      <c r="G34" s="7061" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="35" spans="1:7">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
@@ -5022,15 +9161,15 @@
       <c r="F35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="2614" t="s">
-        <v>94</v>
+      <c r="G35" s="7111" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="36" spans="1:7">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
@@ -5043,15 +9182,15 @@
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="2664" t="s">
-        <v>94</v>
+      <c r="G36" s="7161" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="37" spans="1:7">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
@@ -5064,15 +9203,15 @@
       <c r="F37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G37" s="2714" t="s">
-        <v>94</v>
+      <c r="G37" s="7211" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="38" spans="1:7">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
@@ -5085,15 +9224,15 @@
       <c r="F38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="2764" t="s">
-        <v>94</v>
+      <c r="G38" s="7261" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="39" spans="1:7">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
@@ -5106,15 +9245,15 @@
       <c r="F39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="2814" t="s">
-        <v>94</v>
+      <c r="G39" s="7311" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="40" spans="1:7">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="30"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
@@ -5127,15 +9266,15 @@
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="2864" t="s">
-        <v>94</v>
+      <c r="G40" s="7361" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="41" spans="1:7">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="3" t="s">
         <v>73</v>
       </c>
@@ -5148,15 +9287,15 @@
       <c r="F41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="2914" t="s">
-        <v>94</v>
+      <c r="G41" s="7411" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="42" spans="1:7">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="3" t="s">
         <v>76</v>
       </c>
@@ -5169,15 +9308,15 @@
       <c r="F42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="2964" t="s">
-        <v>94</v>
+      <c r="G42" s="7461" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="43" spans="1:7">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
@@ -5190,8 +9329,8 @@
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="3014" t="s">
-        <v>94</v>
+      <c r="G43" s="7511" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="44" spans="1:7">
@@ -5211,15 +9350,15 @@
         <v>41</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="3064" t="s">
-        <v>94</v>
+      <c r="G44" s="7561" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="45" spans="1:7">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="61" t="s">
         <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -5234,15 +9373,15 @@
       <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="3114" t="s">
-        <v>94</v>
+      <c r="G45" s="5111" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="46" spans="1:7">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
@@ -5255,15 +9394,15 @@
       <c r="F46" s="3">
         <v>13700000000</v>
       </c>
-      <c r="G46" s="3164" t="s">
-        <v>94</v>
+      <c r="G46" s="5161" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="47" spans="1:7">
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="3" t="s">
         <v>16</v>
       </c>
@@ -5276,15 +9415,15 @@
       <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="3214" t="s">
-        <v>94</v>
+      <c r="G47" s="5211" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="48" spans="1:7">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="3" t="s">
         <v>18</v>
       </c>
@@ -5297,15 +9436,15 @@
       <c r="F48" s="2">
         <v>1111</v>
       </c>
-      <c r="G48" s="3264" t="s">
-        <v>94</v>
+      <c r="G48" s="5261" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="49" spans="1:7">
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="3" t="s">
         <v>82</v>
       </c>
@@ -5318,8 +9457,8 @@
       <c r="F49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="3314" t="s">
-        <v>94</v>
+      <c r="G49" s="5311" t="s">
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="50" spans="1:7">
@@ -5337,8 +9476,8 @@
         <v>41</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="3364" t="s">
-        <v>94</v>
+      <c r="G50" s="5361" t="s">
+        <v>91</v>
       </c>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="51" spans="1:7">
@@ -5360,8 +9499,8 @@
       <c r="F51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="3414" t="s">
-        <v>93</v>
+      <c r="G51" s="5411" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="135">
   <si>
     <t>CaseId</t>
   </si>
@@ -353,6 +353,9 @@
     <t>点击工作年限</t>
   </si>
   <si>
+    <t>com.thetiger.ziwork:id/work_time_siv</t>
+  </si>
+  <si>
     <t>点击选择一个技能类别</t>
   </si>
   <si>
@@ -438,6 +441,10 @@
     <t>com.thetiger.ziwork:id/wx_login_tv</t>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.thetiger.ziwork:id/course_back_iv</t>
   </si>
   <si>
@@ -448,17 +455,244 @@
     <t>com.thetiger.ziwork:id/bottom_play_btn</t>
   </si>
   <si>
-    <t>com.thetiger.ziwork:id/work_time_siv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>com.thetiger.ziwork:id/phone_et</t>
+    <t>点击已购按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/main_tab_purchased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/empty_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去听小课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/empty_action_tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.RadioButton[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去逛书屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/action_tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/price_tv</t>
+  </si>
+  <si>
+    <t>点击约见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去约见高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.RadioButton[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/online_service_container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/collection_siv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去看最新文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/submit_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击小课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.RadioButton[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小课</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击听过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/empty_icon_iv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/listened_history_siv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去听推荐音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/main_tab_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/message_center_siv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去逛逛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/stroll_tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/my_service_siv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加新话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击谁预约我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/appointment_me_siv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去首页查看更多内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购（没有数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏（没有数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁预约我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取新人大礼包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,23 +721,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -518,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -542,64 +778,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,20 +1091,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -938,7 +1134,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -953,20 +1149,20 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>90</v>
+      <c r="G2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>92</v>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -974,15 +1170,15 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>91</v>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
@@ -995,15 +1191,15 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>90</v>
+      <c r="G4" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1016,15 +1212,15 @@
       <c r="F5" s="2">
         <v>1111</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>90</v>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1037,15 +1233,15 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>91</v>
+      <c r="G6" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1058,15 +1254,15 @@
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>91</v>
+      <c r="G7" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1079,15 +1275,15 @@
       <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>91</v>
+      <c r="G8" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1100,15 +1296,15 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>91</v>
+      <c r="G9" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1121,15 +1317,15 @@
       <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>91</v>
+      <c r="G10" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1142,15 +1338,15 @@
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>91</v>
+      <c r="G11" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1163,8 +1359,8 @@
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>91</v>
+      <c r="G12" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1184,15 +1380,15 @@
         <v>41</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="18" t="s">
-        <v>90</v>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1207,20 +1403,20 @@
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>90</v>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>92</v>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
@@ -1228,15 +1424,15 @@
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>91</v>
+      <c r="G15" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1249,15 +1445,15 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>90</v>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1270,15 +1466,15 @@
       <c r="F17" s="2">
         <v>1111</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>90</v>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1291,15 +1487,15 @@
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>91</v>
+      <c r="G18" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1312,15 +1508,15 @@
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>91</v>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1333,15 +1529,15 @@
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>91</v>
+      <c r="G20" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1354,15 +1550,15 @@
       <c r="F21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>91</v>
+      <c r="G21" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1375,15 +1571,15 @@
       <c r="F22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>91</v>
+      <c r="G22" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1396,608 +1592,1280 @@
       <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G23" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="38" t="s">
+      <c r="B24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="D24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="13"/>
+      <c r="C25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="13"/>
+      <c r="C26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="13"/>
+      <c r="C27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>86</v>
+      <c r="B28" s="13"/>
+      <c r="C28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
+      <c r="B29" s="13"/>
+      <c r="C29" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="F29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="13"/>
+      <c r="C30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="13"/>
+      <c r="C31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="3" t="s">
-        <v>64</v>
+      <c r="B34" s="13"/>
+      <c r="C34" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="13"/>
+      <c r="C36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="13"/>
+      <c r="C37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="13"/>
+      <c r="C38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="13"/>
+      <c r="C39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="13"/>
+      <c r="C40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="13"/>
+      <c r="C41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="13"/>
+      <c r="C42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="13"/>
+      <c r="C44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="13"/>
+      <c r="C45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="3">
-        <v>13700000000</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="13"/>
+      <c r="C47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1111</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="13"/>
+      <c r="C48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="13"/>
+      <c r="C50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="3">
+        <v>13700000000</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1111</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>91</v>
+      <c r="G82" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B14:B27"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="192">
   <si>
     <t>CaseId</t>
   </si>
@@ -693,6 +693,254 @@
   </si>
   <si>
     <t>领取新人大礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击约见高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/zike_entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/main_tab_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/book_entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新知查看更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新知第一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击小课查看更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击小课第一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动到页面底部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击书屋查看更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击书屋第一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrolldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/article_entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/course_entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/facade_title_container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='com.thetiger.ziwork:id/article_facade_container']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[@resource-id='com.thetiger.ziwork:id/course_facade_container']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/cover_sdv</t>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/cover_sdv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/submit_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/date_tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/tag_tiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/course_head_hint_rl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">com.thetiger.ziwork:id/action_tv </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">com.thetiger.ziwork:id/book_name_tv </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新知，进入列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击市场标签，进入市场列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击小课，进入小课列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击书屋，进入书屋列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//android.widget.TextView[@text='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/article_item_content_container</t>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/article_item_content_container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第一个小文进入详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.support.v7.widget.RecyclerView[@resource-id='com.thetiger.ziwork:id/recycler_view']/android.widget.FrameLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回，到首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回，到列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回，到标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏该小文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享该小文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/collect_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/share_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/wechat_container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/cancel_tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第一个小课，进入详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回，回到列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.support.v7.widget.RecyclerView[@resource-id='com.thetiger.ziwork:id/recycler_view']/android.widget.RelativeLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第一篇书籍进入书屋详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回，返回到列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/action_tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书屋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -781,6 +1029,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,10 +1043,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1091,16 +1345,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.375" bestFit="1" customWidth="1"/>
@@ -1134,7 +1388,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1157,7 +1411,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1432,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1453,7 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1220,7 +1474,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1495,7 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1262,7 +1516,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1537,7 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1558,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1579,7 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1600,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1642,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1411,7 +1665,7 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1432,7 +1686,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1707,7 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1474,7 +1728,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1749,7 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1516,7 +1770,7 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1791,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1812,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1579,7 +1833,7 @@
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1596,23 +1850,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -1623,7 +1877,7 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
         <v>94</v>
       </c>
@@ -1644,7 +1898,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="9" t="s">
         <v>96</v>
       </c>
@@ -1654,7 +1908,7 @@
       <c r="E26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -1665,7 +1919,7 @@
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
         <v>97</v>
       </c>
@@ -1686,7 +1940,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
         <v>99</v>
       </c>
@@ -1707,7 +1961,7 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
         <v>96</v>
       </c>
@@ -1717,7 +1971,7 @@
       <c r="E29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -1728,7 +1982,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="9" t="s">
         <v>102</v>
       </c>
@@ -1738,7 +1992,7 @@
       <c r="E30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -1749,7 +2003,7 @@
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
         <v>103</v>
       </c>
@@ -1759,7 +2013,7 @@
       <c r="E31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="12" t="s">
         <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -1770,7 +2024,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1793,7 +2047,7 @@
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
         <v>107</v>
       </c>
@@ -1814,7 +2068,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="9" t="s">
         <v>109</v>
       </c>
@@ -1835,7 +2089,7 @@
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
         <v>96</v>
       </c>
@@ -1856,7 +2110,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="9" t="s">
         <v>111</v>
       </c>
@@ -1877,7 +2131,7 @@
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
         <v>94</v>
       </c>
@@ -1898,7 +2152,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
         <v>96</v>
       </c>
@@ -1908,7 +2162,7 @@
       <c r="E38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -1919,7 +2173,7 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
         <v>97</v>
       </c>
@@ -1940,7 +2194,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
         <v>99</v>
       </c>
@@ -1961,7 +2215,7 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
         <v>96</v>
       </c>
@@ -1971,7 +2225,7 @@
       <c r="E41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -1982,7 +2236,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
         <v>96</v>
       </c>
@@ -2003,7 +2257,7 @@
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="16" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -2026,7 +2280,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="9" t="s">
         <v>116</v>
       </c>
@@ -2047,7 +2301,7 @@
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
         <v>106</v>
       </c>
@@ -2068,7 +2322,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -2080,7 +2334,7 @@
       <c r="E46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -2091,7 +2345,7 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
         <v>120</v>
       </c>
@@ -2101,7 +2355,7 @@
       <c r="E47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="12" t="s">
         <v>105</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -2112,7 +2366,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
         <v>106</v>
       </c>
@@ -2133,7 +2387,7 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -2156,7 +2410,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
         <v>124</v>
       </c>
@@ -2177,7 +2431,7 @@
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="9" t="s">
         <v>96</v>
       </c>
@@ -2198,7 +2452,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="9" t="s">
         <v>96</v>
       </c>
@@ -2219,7 +2473,7 @@
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="16" t="s">
         <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -2242,7 +2496,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="9" t="s">
         <v>127</v>
       </c>
@@ -2263,7 +2517,7 @@
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="16" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2286,7 +2540,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="3" t="s">
         <v>31</v>
       </c>
@@ -2307,7 +2561,7 @@
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
@@ -2328,7 +2582,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="3" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2603,7 @@
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -2372,7 +2626,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="6" t="s">
         <v>53</v>
       </c>
@@ -2393,7 +2647,7 @@
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
@@ -2414,7 +2668,7 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="3" t="s">
         <v>57</v>
       </c>
@@ -2435,7 +2689,7 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="3" t="s">
         <v>60</v>
       </c>
@@ -2456,7 +2710,7 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2477,7 +2731,7 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2498,7 +2752,7 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="13"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="3" t="s">
         <v>63</v>
       </c>
@@ -2519,7 +2773,7 @@
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2540,7 +2794,7 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="3" t="s">
         <v>68</v>
       </c>
@@ -2561,7 +2815,7 @@
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="3" t="s">
         <v>71</v>
       </c>
@@ -2582,7 +2836,7 @@
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="3" t="s">
         <v>63</v>
       </c>
@@ -2603,7 +2857,7 @@
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2624,7 +2878,7 @@
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2645,7 +2899,7 @@
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="3" t="s">
         <v>77</v>
       </c>
@@ -2666,7 +2920,7 @@
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="3" t="s">
         <v>79</v>
       </c>
@@ -2708,7 +2962,7 @@
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -2731,7 +2985,7 @@
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="14"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="3" t="s">
         <v>12</v>
       </c>
@@ -2752,7 +3006,7 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="14"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="3" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +3027,7 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="14"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="3" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +3048,7 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="14"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="3" t="s">
         <v>83</v>
       </c>
@@ -2804,59 +3058,762 @@
       <c r="E80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>49</v>
+      <c r="F80" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" s="1"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="G81" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="B85" s="15"/>
+      <c r="C85" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="B86" s="15"/>
+      <c r="C86" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="B87" s="15"/>
+      <c r="C87" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G92" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B76:B80"/>
     <mergeCell ref="B59:B74"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="B14:B23"/>
@@ -2866,6 +3823,11 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3374,7 +3374,7 @@
         <v>185</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>10</v>
@@ -3651,7 +3651,7 @@
         <v>157</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>10</v>
@@ -3812,6 +3812,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B59:B74"/>
@@ -3823,11 +3828,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -803,10 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">com.thetiger.ziwork:id/book_name_tv </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击新知，进入列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,6 +938,9 @@
   <si>
     <t>书屋</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.thetiger.ziwork:id/book_name_tv</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2334,8 +2333,8 @@
       <c r="E46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>93</v>
+      <c r="F46" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>87</v>
@@ -3091,7 +3090,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>136</v>
@@ -3135,10 +3134,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>149</v>
@@ -3159,16 +3158,16 @@
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>87</v>
@@ -3180,10 +3179,10 @@
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>10</v>
@@ -3201,16 +3200,16 @@
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>87</v>
@@ -3222,16 +3221,16 @@
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>87</v>
@@ -3243,10 +3242,10 @@
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>10</v>
@@ -3264,7 +3263,7 @@
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>44</v>
@@ -3273,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>87</v>
@@ -3285,7 +3284,7 @@
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>44</v>
@@ -3306,7 +3305,7 @@
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>44</v>
@@ -3326,10 +3325,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>150</v>
@@ -3350,10 +3349,10 @@
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>10</v>
@@ -3371,7 +3370,7 @@
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>88</v>
@@ -3392,7 +3391,7 @@
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>44</v>
@@ -3412,10 +3411,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>140</v>
@@ -3424,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>87</v>
@@ -3436,16 +3435,16 @@
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>87</v>
@@ -3457,7 +3456,7 @@
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>44</v>
@@ -3466,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>87</v>
@@ -3478,7 +3477,7 @@
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>44</v>
@@ -3741,7 +3740,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>87</v>
@@ -3812,11 +3811,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B59:B74"/>
@@ -3828,6 +3822,11 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2995,7 +2995,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="3">
-        <v>13700000000</v>
+        <v>13700000002</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>87</v>
@@ -3811,6 +3811,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B59:B74"/>
@@ -3822,11 +3827,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2995,7 +2995,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="3">
-        <v>13700000002</v>
+        <v>13700000003</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>87</v>
@@ -3802,8 +3802,8 @@
       <c r="E115" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>49</v>
+      <c r="F115" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>87</v>
@@ -3811,11 +3811,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B59:B74"/>
@@ -3827,6 +3822,11 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2995,7 +2995,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="3">
-        <v>13700000003</v>
+        <v>13700000004</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>87</v>
@@ -3811,6 +3811,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B59:B74"/>
@@ -3822,11 +3827,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="191">
   <si>
     <t>CaseId</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>com.thetiger.ziwork:id/submit_tv</t>
-  </si>
-  <si>
-    <t>com.thetiger.ziwork:id/webview</t>
   </si>
   <si>
     <t>点击一键领取</t>
@@ -1001,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1041,6 +1038,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1387,7 +1387,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1403,14 +1403,14 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1424,14 +1424,14 @@
         <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1445,14 +1445,14 @@
         <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1466,14 +1466,14 @@
         <v>1111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1487,14 +1487,14 @@
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1508,14 +1508,14 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1529,14 +1529,14 @@
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1546,74 +1546,74 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
+      <c r="F9" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1621,28 +1621,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>42</v>
+      <c r="B14" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1657,14 +1657,14 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1678,14 +1678,14 @@
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1699,14 +1699,14 @@
         <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1720,14 +1720,14 @@
         <v>1111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1741,14 +1741,14 @@
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1762,14 +1762,14 @@
         <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1783,14 +1783,14 @@
         <v>27</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1800,1068 +1800,1068 @@
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
+      <c r="F21" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>128</v>
+      <c r="B24" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="E27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>129</v>
+      <c r="B32" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="E37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="E39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>130</v>
+      <c r="B43" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>131</v>
+      <c r="B46" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="E46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="E47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G48" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>132</v>
+      <c r="B49" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>133</v>
+      <c r="B53" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="E53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="16"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>134</v>
+      <c r="B55" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>30</v>
+      <c r="F55" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="16"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="16"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>52</v>
+      <c r="B59" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="G59" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="16"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G61" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="16"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G62" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G63" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="16"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G68" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="16"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="16"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -2870,70 +2870,70 @@
         <v>17</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="16"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="16"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G73" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="16"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2941,34 +2941,34 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -2977,14 +2977,14 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="3" t="s">
         <v>12</v>
       </c>
@@ -2998,14 +2998,14 @@
         <v>13700000004</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="3" t="s">
         <v>16</v>
       </c>
@@ -3019,14 +3019,14 @@
         <v>17</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="3" t="s">
         <v>18</v>
       </c>
@@ -3040,16 +3040,16 @@
         <v>1111</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -3058,713 +3058,713 @@
         <v>10</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G81" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>178</v>
+      <c r="B82" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="E82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="G83" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>179</v>
+      <c r="B84" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="E86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="E89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>189</v>
+      <c r="B93" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>190</v>
+      <c r="B97" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="G99" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>135</v>
+      <c r="B101" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D109" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="G109" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -3791,31 +3791,26 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B100"/>
     <mergeCell ref="B76:B81"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B59:B74"/>
@@ -3827,6 +3822,11 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
